--- a/data/Aug 2023 MHDR/Institutional delivery national.xlsx
+++ b/data/Aug 2023 MHDR/Institutional delivery national.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PIMPA.SAWULU\Documents\E4H-Zambia\data\Aug 2023 MHDR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADC2D69-A745-4BC5-B4F9-82159FB691ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729CA5C3-ED0F-4403-9590-99362A1D8139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>Postnatal 1st Contacts Within 2 days (48)  Hours</t>
   </si>
   <si>
-    <t>Maternal Postnatal Care after Delivery(%)</t>
+    <t>Maternal Postnatal Care after Delivery (%)</t>
   </si>
 </sst>
 </file>
@@ -96,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,7 +424,7 @@
         <v>35371</v>
       </c>
       <c r="E2" s="1">
-        <v>0.53856182831190091</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -441,7 +441,7 @@
         <v>35672</v>
       </c>
       <c r="E3" s="1">
-        <v>0.64512966681028538</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -458,7 +458,7 @@
         <v>26273</v>
       </c>
       <c r="E4" s="1">
-        <v>0.72423008006687661</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -475,7 +475,7 @@
         <v>23875</v>
       </c>
       <c r="E5" s="1">
-        <v>0.84809074413842733</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -492,7 +492,7 @@
         <v>13935</v>
       </c>
       <c r="E6" s="1">
-        <v>0.88429675384064788</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
